--- a/data/evaluation/evaluation_Center_Summer_Peaches.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Peaches.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1508.958333333333</v>
+        <v>1493.958333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>4334482.833333333</v>
+        <v>4323157.833333333</v>
       </c>
       <c r="D3" t="n">
-        <v>2081.942082127486</v>
+        <v>2079.220486945368</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6466185172194683</v>
+        <v>0.6475418212089807</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2081.615319435059</v>
+        <v>2136.924256168498</v>
       </c>
       <c r="C4" t="n">
-        <v>8514881.277347228</v>
+        <v>8890717.537729466</v>
       </c>
       <c r="D4" t="n">
-        <v>2918.02694938673</v>
+        <v>2981.73062796247</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3057992182252691</v>
+        <v>0.2751580598487279</v>
       </c>
     </row>
     <row r="5">
